--- a/game-server/config/excel/configfunction.xlsx
+++ b/game-server/config/excel/configfunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="configfunction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>字段</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>宝石</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -990,13 +993,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,7 +1256,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1325,11 +1321,11 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
